--- a/educatico/30-Ficha-educatico,Memoria.xlsx
+++ b/educatico/30-Ficha-educatico,Memoria.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\memoria\educatico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="tipo de recurso" sheetId="2" r:id="rId7"/>
     <sheet name="tematica" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2266,6 +2266,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,9 +2276,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:T272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2722,26 +2722,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
       <c r="S1" s="60"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5499,7 +5499,7 @@
       <c r="B70" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="73" t="s">
         <v>465</v>
       </c>
       <c r="D70" s="37" t="s">
